--- a/data/trans_bre/P19_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>261,15%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>115,25%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 20,5</t>
+          <t>-32,93; -1,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 17,58</t>
+          <t>-21,73; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 14,51</t>
+          <t>-16,64; 12,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 13,4</t>
+          <t>-12,6; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 395,76</t>
+          <t>-4,87; 26,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,36; —</t>
+          <t>-34,3; -2,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 974,05</t>
+          <t>-22,03; 2,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 695,05</t>
+          <t>-17,15; 16,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 15,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 38,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>112,83%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>119,56%</t>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-6,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 13,61</t>
+          <t>-12,97; 14,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,94</t>
+          <t>-11,31; 6,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,87</t>
+          <t>-6,69; 10,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 10,56</t>
+          <t>-11,52; 7,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 296,28</t>
+          <t>-16,99; 3,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,04; 18,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; 7,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 1135,58</t>
+          <t>-6,8; 11,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; 8,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; 3,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>102,24%</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>167,6%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>222,71%</t>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 9,26</t>
+          <t>-8,78; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 6,13</t>
+          <t>-5,74; 9,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,85</t>
+          <t>-12,15; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,95</t>
+          <t>-13,35; 5,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 708,33</t>
+          <t>0,84; 18,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 483,29</t>
+          <t>-9,22; 7,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 1155,16</t>
+          <t>-5,94; 11,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 1452,66</t>
+          <t>-12,42; 3,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 6,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 23,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>-9,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>242,04%</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,66%</t>
+          <t>-12,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>109,48%</t>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-8,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,05</t>
+          <t>-20,46; -5,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 10,39</t>
+          <t>-15,73; -1,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,24</t>
+          <t>-11,9; 3,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 11,46</t>
+          <t>-16,94; -1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 1251,07</t>
+          <t>-17,57; 0,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 677,6</t>
+          <t>-20,66; -6,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 658,88</t>
+          <t>-16,31; -1,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 582,27</t>
+          <t>-12,28; 3,91</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; -2,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 0,15</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>255,47%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-56,52%</t>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 10,59</t>
+          <t>-15,79; 4,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 12,68</t>
+          <t>-15,53; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,86</t>
+          <t>-14,14; 5,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 1,51</t>
+          <t>-0,88; 16,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 368,99</t>
+          <t>-21,17; -0,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; —</t>
+          <t>-16,71; 5,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,5; 335,54</t>
+          <t>-16,09; 2,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,89</t>
+          <t>-14,46; 5,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 19,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; -0,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>156,86%</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>577,92%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-2,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,9%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 21,81</t>
+          <t>-11,9; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,31</t>
+          <t>-12,71; 3,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 6,93</t>
+          <t>-7,51; 6,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-23,31; -1,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-11,9; 0,0</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-87,9; 533,03</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,55; 393,97</t>
+          <t>-12,76; 4,12</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 6,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; -1,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>166,27%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>-3,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,98</t>
+          <t>-9,83; -1,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,45</t>
+          <t>-7,46; -0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,96</t>
+          <t>-6,66; 0,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,85</t>
+          <t>-6,08; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,1; 203,75</t>
+          <t>-6,59; 2,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,67; 394,21</t>
+          <t>-10,21; -1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 206,3</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 179,67</t>
+          <t>-6,85; 0,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,4; 1,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
